--- a/study02/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study02/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -6,19 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="weak_spearman_3" r:id="rId3" sheetId="1"/>
-    <sheet name="weak_spearman_8" r:id="rId4" sheetId="2"/>
-    <sheet name="weak_spearman_17" r:id="rId5" sheetId="3"/>
-    <sheet name="weak_spearman_18" r:id="rId6" sheetId="4"/>
-    <sheet name="weak_spearman_25" r:id="rId7" sheetId="5"/>
+    <sheet name="weak_spearman_8" r:id="rId3" sheetId="1"/>
+    <sheet name="weak_spearman_17" r:id="rId4" sheetId="2"/>
+    <sheet name="weak_spearman_30" r:id="rId5" sheetId="3"/>
+    <sheet name="weak_spearman_35" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="47">
   <si>
-    <t>Correlation information for DiffTheta - Level of Motivation in ont-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -27,7 +26,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Level of Motivation</t>
@@ -54,13 +53,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-LvloM</t>
+    <t>GiS/K-LvloM</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Level of Motivation in ont-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Level of Motivation in ont-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -90,10 +89,10 @@
     <t>Grupo Razorg</t>
   </si>
   <si>
-    <t>Grupo Paldira</t>
+    <t>Grupo Yeka</t>
   </si>
   <si>
-    <t>Grupo Yeka</t>
+    <t>Grupo Paldira</t>
   </si>
   <si>
     <t>Grupo Losvakai</t>
@@ -102,16 +101,13 @@
     <t>Grupo Koil</t>
   </si>
   <si>
+    <t>Grupo Ellaru</t>
+  </si>
+  <si>
     <t>Grupo Belos</t>
   </si>
   <si>
-    <t>Grupo Ellaru</t>
-  </si>
-  <si>
     <t>Apprentice</t>
-  </si>
-  <si>
-    <t>Master</t>
   </si>
   <si>
     <t>Yee Achiever</t>
@@ -120,82 +116,46 @@
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Level of Motivation in ont-gamified.Apprentice using the method: spearman</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Level of Motivation in ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Level of Motivation in ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Attention in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Attention</t>
   </si>
   <si>
-    <t>DffTh-Attnt</t>
+    <t>GiS/K-Attnt</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Attention in ont-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Attention in ont-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Attention in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in ont-gamified using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Attention in ont-gamified.Master</t>
+    <t>Satisfaction</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Attention in ont-gamified.Master</t>
+    <t>GiS/K-Stsfc</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Relevance in non-gamified.Master using the method: spearman</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in ont-gamified</t>
   </si>
   <si>
-    <t>Relevance</t>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in ont-gamified</t>
   </si>
   <si>
-    <t>DffTh-Rlvnc</t>
+    <t>Master</t>
   </si>
   <si>
-    <t>Data source for DiffTheta - Relevance in non-gamified.Master</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data full source for DiffTheta - Relevance in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>non-gamified</t>
-  </si>
-  <si>
-    <t>Grupo Team 6</t>
-  </si>
-  <si>
-    <t>Grupo Team 7</t>
-  </si>
-  <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 10</t>
-  </si>
-  <si>
-    <t>Grupo Team 5</t>
-  </si>
-  <si>
-    <t>Grupo Team 9</t>
-  </si>
-  <si>
-    <t>Grupo Team 8</t>
-  </si>
-  <si>
-    <t>Grupo Team 4</t>
-  </si>
-  <si>
-    <t/>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -203,486 +163,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="371">
+  <fonts count="297">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2619,7 +2106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="701">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3277,170 +2764,6 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3498,10 +2821,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.315130948571179</v>
+        <v>-0.3438617658530269</v>
       </c>
     </row>
     <row r="7">
@@ -3509,10 +2832,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.315130948571179</v>
+        <v>-0.3438617658530269</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -3543,11 +2866,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="51">
-        <v>1.710947035355221E8</v>
+      <c r="B12" t="e" s="51">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-1.1972213781997354</v>
+        <v>-1.1580009544709844</v>
       </c>
     </row>
     <row r="13">
@@ -3555,10 +2878,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-1.1972213781997354</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>1.710947035355221E8</v>
+        <v>-1.1580009544709844</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -3590,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>3.5089823585550026E-101</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.25259594606315683</v>
+        <v>0.2737723269520782</v>
       </c>
     </row>
     <row r="19">
@@ -3601,10 +2924,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.25259594606315683</v>
+        <v>0.2737723269520782</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>3.5089823585550026E-101</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -3642,16 +2965,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.7123923791293527</v>
+        <v>-0.7665000907750075</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.315130948571179</v>
+        <v>-0.3438617658530269</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.2350809904873487</v>
+        <v>0.28659788746600207</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.25259594606315683</v>
+        <v>0.2737723269520782</v>
       </c>
     </row>
     <row r="25">
@@ -3679,301 +3002,355 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.01211046355488056</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.020030029631302033</v>
+        <v>0.10344207127600225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.14688963924618592</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.12952152339410455</v>
+        <v>-0.19146962764652783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.018017776512184103</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.3225399531185712</v>
+        <v>1.4041786884021583</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.382909871149995</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>0.07080596883822704</v>
+        <v>-0.2482780541239355</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>-0.006143493388288963</v>
+        <v>-0.18880691216642873</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>1.2530230692815976</v>
+        <v>1.4041786884021583</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>0.03290535220278847</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.4165717672691316</v>
+        <v>-0.5220699620427414</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>-0.32525873529986427</v>
+        <v>-0.049443526776523666</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>1.2530230692815976</v>
+        <v>0.16436034600850633</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>-0.08233388109376125</v>
+        <v>0.11888874974223204</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>-0.46307375086820896</v>
+        <v>-1.0519310161028013</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>0.4970404268963286</v>
+        <v>0.1971469982760908</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>-0.46307375086820896</v>
+        <v>0.9392429878765253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="113">
-        <v>-0.040979642846269676</v>
+        <v>0.11050904127882963</v>
       </c>
       <c r="B38" t="n" s="114">
-        <v>0.12204259562758533</v>
+        <v>1.1585341734447687</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="113">
-        <v>-0.3651781225582364</v>
+        <v>0.28656270536652023</v>
       </c>
       <c r="B39" t="n" s="114">
-        <v>0.4397719820919573</v>
+        <v>-0.07561268264019994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="113">
-        <v>-0.008870768524238473</v>
+        <v>0.05893550978126971</v>
       </c>
       <c r="B40" t="n" s="114">
-        <v>-1.0175866106006741</v>
+        <v>0.10344207127600225</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>0.09220339568381841</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>1.0423508480074448</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>0.3286436590610784</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>-0.030284277411685573</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="113">
-        <v>0.023150873216642717</v>
-      </c>
-      <c r="B43" t="n" s="114">
-        <v>-0.030284277411685573</v>
+      <c r="A43" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="A45" t="n" s="133">
+        <v>10179.0</v>
+      </c>
+      <c r="B45" t="n" s="134">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C45" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="139">
+        <v>0.05583002094676219</v>
+      </c>
+      <c r="H45" t="n" s="140">
+        <v>0.10344207127600225</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="118">
-        <v>14</v>
+      <c r="A46" t="n" s="133">
+        <v>10187.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>9790781.0</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>-0.044148911115340694</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>-0.19146962764652783</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="132">
-        <v>4</v>
+      <c r="A47" t="n" s="133">
+        <v>10192.0</v>
+      </c>
+      <c r="B47" t="n" s="134">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C47" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G47" t="n" s="139">
+        <v>-0.10131874223823673</v>
+      </c>
+      <c r="H47" t="n" s="140">
+        <v>1.4041786884021583</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10179.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.0310759E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F48" t="s" s="138">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.01211046355488056</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>0.020030029631302033</v>
+        <v>-0.2482780541239355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10185.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B49" t="n" s="134">
-        <v>1.027696E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C49" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="138">
         <v>31</v>
       </c>
-      <c r="F49" t="s" s="138">
-        <v>32</v>
-      </c>
       <c r="G49" t="n" s="139">
-        <v>0.14688963924618592</v>
+        <v>-0.18880691216642873</v>
       </c>
       <c r="H49" t="n" s="140">
-        <v>-0.12952152339410455</v>
+        <v>1.4041786884021583</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10187.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B50" t="n" s="134">
-        <v>9790781.0</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C50" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F50" t="s" s="138">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>-0.018017776512184103</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="H50" t="n" s="140">
-        <v>-0.3225399531185712</v>
+        <v>-0.5220699620427414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="133">
-        <v>10188.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B51" t="n" s="134">
-        <v>1.0276995E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C51" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="136">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s" s="138">
         <v>31</v>
       </c>
-      <c r="F51" t="s" s="138">
-        <v>32</v>
-      </c>
       <c r="G51" t="n" s="139">
-        <v>-0.382909871149995</v>
+        <v>-0.049443526776523666</v>
       </c>
       <c r="H51" t="n" s="140">
-        <v>0.07080596883822704</v>
+        <v>0.16436034600850633</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="133">
-        <v>10192.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B52" t="n" s="134">
-        <v>1.0276682E7</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C52" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="136">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F52" t="s" s="138">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52" t="n" s="139">
-        <v>-0.006143493388288963</v>
+        <v>0.11888874974223204</v>
       </c>
       <c r="H52" t="n" s="140">
-        <v>1.2530230692815976</v>
+        <v>-1.0519310161028013</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="133">
-        <v>10202.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B53" t="n" s="134">
-        <v>1.0277036E7</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C53" t="s" s="135">
         <v>21</v>
@@ -3988,76 +3365,76 @@
         <v>32</v>
       </c>
       <c r="G53" t="n" s="139">
-        <v>0.03290535220278847</v>
+        <v>0.1971469982760908</v>
       </c>
       <c r="H53" t="n" s="140">
-        <v>-0.4165717672691316</v>
+        <v>0.9392429878765253</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="133">
-        <v>10203.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="134">
-        <v>9921470.0</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C54" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="136">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F54" t="s" s="138">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n" s="139">
-        <v>-0.32525873529986427</v>
+        <v>0.11050904127882963</v>
       </c>
       <c r="H54" t="n" s="140">
-        <v>1.2530230692815976</v>
+        <v>1.1585341734447687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="133">
-        <v>10208.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B55" t="n" s="134">
-        <v>1.0276932E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C55" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D55" t="s" s="136">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s" s="137">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s" s="138">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n" s="139">
-        <v>-0.08233388109376125</v>
+        <v>0.28656270536652023</v>
       </c>
       <c r="H55" t="n" s="140">
-        <v>-0.46307375086820896</v>
+        <v>-0.07561268264019994</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="133">
-        <v>10210.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B56" t="n" s="134">
-        <v>1.0277015E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C56" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D56" t="s" s="136">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s" s="137">
         <v>30</v>
@@ -4066,166 +3443,10 @@
         <v>32</v>
       </c>
       <c r="G56" t="n" s="139">
-        <v>0.4970404268963286</v>
+        <v>0.05893550978126971</v>
       </c>
       <c r="H56" t="n" s="140">
-        <v>-0.46307375086820896</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10214.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>-0.040979642846269676</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>0.12204259562758533</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10217.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>9805341.0</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>0.4397719820919573</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10219.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>1.0276831E7</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>-0.008870768524238473</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>-1.0175866106006741</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10230.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>0.09220339568381841</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>1.0423508480074448</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="133">
-        <v>10237.0</v>
-      </c>
-      <c r="B61" t="n" s="134">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C61" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E61" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G61" t="n" s="139">
-        <v>0.3286436590610784</v>
-      </c>
-      <c r="H61" t="n" s="140">
-        <v>-0.030284277411685573</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="133">
-        <v>10238.0</v>
-      </c>
-      <c r="B62" t="n" s="134">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C62" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F62" t="s" s="138">
-        <v>33</v>
-      </c>
-      <c r="G62" t="n" s="139">
-        <v>0.023150873216642717</v>
-      </c>
-      <c r="H62" t="n" s="140">
-        <v>-0.030284277411685573</v>
+        <v>0.10344207127600225</v>
       </c>
     </row>
   </sheetData>
@@ -4254,7 +3475,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -4278,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -4289,15 +3510,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.3516018390324618</v>
+        <v>-0.4113889049443783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.3516018390324618</v>
+        <v>-0.4113889049443783</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -4324,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -4335,15 +3556,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-1.1267488369811236</v>
+        <v>-1.4272991367097916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-1.1267488369811236</v>
+        <v>-1.4272991367097916</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -4370,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -4381,15 +3602,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.2889932488083734</v>
+        <v>0.18396553295948567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.2889932488083734</v>
+        <v>0.18396553295948567</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>-0.0</v>
@@ -4427,19 +3648,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.7857489229241365</v>
+        <v>-0.7970982172420862</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.3516018390324618</v>
+        <v>-0.4113889049443783</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.3146351198309126</v>
+        <v>0.21273991663143457</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.2889932488083734</v>
+        <v>0.18396553295948567</v>
       </c>
     </row>
     <row r="25">
@@ -4454,7 +3675,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4462,100 +3683,103 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>0.01211046355488056</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.020030029631302033</v>
+        <v>-0.0409808123486633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>-0.018017776512184103</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>-0.3225399531185712</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>-0.006143493388288963</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>1.2530230692815976</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>0.03290535220278847</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>-0.4165717672691316</v>
+        <v>-0.2302320085690157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>-0.32525873529986427</v>
+        <v>-0.18880691216642873</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>1.2530230692815976</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>0.4970404268963286</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.46307375086820896</v>
+        <v>-0.951906627115639</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>-0.040979642846269676</v>
+        <v>-0.049443526776523666</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>0.12204259562758533</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>-0.008870768524238473</v>
+        <v>0.11888874974223204</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>-1.0175866106006741</v>
+        <v>-1.3006930783128259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>0.09220339568381841</v>
+        <v>0.1971469982760908</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>1.0423508480074448</v>
+        <v>0.9382374828508123</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="253">
-        <v>0.3286436590610784</v>
+        <v>0.11050904127882963</v>
       </c>
       <c r="B38" t="n" s="254">
-        <v>-0.030284277411685573</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="253">
-        <v>0.023150873216642717</v>
+        <v>0.28656270536652023</v>
       </c>
       <c r="B39" t="n" s="254">
-        <v>-0.030284277411685573</v>
+        <v>-0.40202239655355587</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="n" s="253">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="B40" t="n" s="254">
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="41">
@@ -4564,120 +3788,99 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="258">
-        <v>36</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="272">
+      <c r="A43" t="s" s="258">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="272">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="272">
+      <c r="B44" t="s" s="272">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="272">
+      <c r="C44" t="s" s="272">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="272">
+      <c r="D44" t="s" s="272">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="272">
+      <c r="E44" t="s" s="272">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="272">
+      <c r="F44" t="s" s="272">
         <v>20</v>
       </c>
-      <c r="G43" t="s" s="272">
+      <c r="G44" t="s" s="272">
         <v>3</v>
       </c>
-      <c r="H43" t="s" s="272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="273">
-        <v>10179.0</v>
-      </c>
-      <c r="B44" t="n" s="274">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C44" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="276">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="278">
-        <v>32</v>
-      </c>
-      <c r="G44" t="n" s="279">
-        <v>0.01211046355488056</v>
-      </c>
-      <c r="H44" t="n" s="280">
-        <v>0.020030029631302033</v>
+      <c r="H44" t="s" s="272">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="273">
-        <v>10187.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B45" t="n" s="274">
-        <v>9790781.0</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C45" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D45" t="s" s="276">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F45" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" t="n" s="279">
-        <v>-0.018017776512184103</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="H45" t="n" s="280">
-        <v>-0.3225399531185712</v>
+        <v>-0.0409808123486633</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="273">
-        <v>10192.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B46" t="n" s="274">
-        <v>1.0276682E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C46" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D46" t="s" s="276">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F46" t="s" s="278">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" t="n" s="279">
-        <v>-0.006143493388288963</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="H46" t="n" s="280">
-        <v>1.2530230692815976</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="273">
-        <v>10202.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B47" t="n" s="274">
-        <v>1.0277036E7</v>
+        <v>1.0276682E7</v>
       </c>
       <c r="C47" t="s" s="275">
         <v>21</v>
@@ -4692,192 +3895,244 @@
         <v>32</v>
       </c>
       <c r="G47" t="n" s="279">
-        <v>0.03290535220278847</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="H47" t="n" s="280">
-        <v>-0.4165717672691316</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="273">
-        <v>10203.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B48" t="n" s="274">
-        <v>9921470.0</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C48" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="276">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F48" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n" s="279">
-        <v>-0.32525873529986427</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="H48" t="n" s="280">
-        <v>1.2530230692815976</v>
+        <v>-0.2302320085690157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="273">
-        <v>10210.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B49" t="n" s="274">
-        <v>1.0277015E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C49" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="276">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F49" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n" s="279">
-        <v>0.4970404268963286</v>
+        <v>-0.18880691216642873</v>
       </c>
       <c r="H49" t="n" s="280">
-        <v>-0.46307375086820896</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="273">
-        <v>10214.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B50" t="n" s="274">
-        <v>1.0277022E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C50" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="276">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F50" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n" s="279">
-        <v>-0.040979642846269676</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="H50" t="n" s="280">
-        <v>0.12204259562758533</v>
+        <v>-0.951906627115639</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="273">
-        <v>10219.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B51" t="n" s="274">
-        <v>1.0276831E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C51" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D51" t="s" s="276">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F51" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="n" s="279">
-        <v>-0.008870768524238473</v>
+        <v>-0.049443526776523666</v>
       </c>
       <c r="H51" t="n" s="280">
-        <v>-1.0175866106006741</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="273">
-        <v>10230.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B52" t="n" s="274">
-        <v>1.0351992E7</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C52" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="276">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F52" t="s" s="278">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="n" s="279">
-        <v>0.09220339568381841</v>
+        <v>0.11888874974223204</v>
       </c>
       <c r="H52" t="n" s="280">
-        <v>1.0423508480074448</v>
+        <v>-1.3006930783128259</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="273">
-        <v>10237.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B53" t="n" s="274">
-        <v>1.0377688E7</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C53" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="276">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F53" t="s" s="278">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="n" s="279">
-        <v>0.3286436590610784</v>
+        <v>0.1971469982760908</v>
       </c>
       <c r="H53" t="n" s="280">
-        <v>-0.030284277411685573</v>
+        <v>0.9382374828508123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="273">
-        <v>10238.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="274">
-        <v>1.0276953E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C54" t="s" s="275">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="276">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s" s="277">
         <v>30</v>
       </c>
       <c r="F54" t="s" s="278">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n" s="279">
-        <v>0.023150873216642717</v>
+        <v>0.11050904127882963</v>
       </c>
       <c r="H54" t="n" s="280">
-        <v>-0.030284277411685573</v>
+        <v>1.7805328619608778</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="273">
+        <v>10237.0</v>
+      </c>
+      <c r="B55" t="n" s="274">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C55" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="278">
+        <v>32</v>
+      </c>
+      <c r="G55" t="n" s="279">
+        <v>0.28656270536652023</v>
+      </c>
+      <c r="H55" t="n" s="280">
+        <v>-0.40202239655355587</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="273">
+        <v>10238.0</v>
+      </c>
+      <c r="B56" t="n" s="274">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C56" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s" s="278">
+        <v>32</v>
+      </c>
+      <c r="G56" t="n" s="279">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="H56" t="n" s="280">
+        <v>0.3673639391876393</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +4161,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -4930,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -4941,15 +4196,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>-0.3494483723024942</v>
+        <v>-0.30930812849314315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>-0.3494483723024942</v>
+        <v>-0.30930812849314315</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -4976,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -4987,15 +4242,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>-1.1188844954724553</v>
+        <v>-1.21700467501955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>-1.1188844954724553</v>
+        <v>-1.21700467501955</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -5022,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -5033,15 +4288,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.29216199619647787</v>
+        <v>0.2437206110281403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.29216199619647787</v>
+        <v>0.2437206110281403</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>-0.0</v>
@@ -5079,19 +4334,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.7848077821634384</v>
+        <v>-0.6979931746912851</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>-0.3494483723024942</v>
+        <v>-0.30930812849314315</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.3168454863340209</v>
+        <v>0.2201521868042355</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.29216199619647787</v>
+        <v>0.2437206110281403</v>
       </c>
     </row>
     <row r="25">
@@ -5106,7 +4361,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -5114,326 +4369,236 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>0.01211046355488056</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>-0.041427361160951144</v>
+        <v>-0.014001108050057498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>-0.018017776512184103</v>
+        <v>0.14820426248899476</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>0.3669104853259753</v>
+        <v>-0.3483438820571504</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>-0.006143493388288963</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>1.7800505602512255</v>
+        <v>0.3328125066690014</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>0.03290535220278847</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>-0.23067117645781812</v>
+        <v>0.3328125066690014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>-0.32525873529986427</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>1.7800505602512255</v>
+        <v>1.3428958320542652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>0.4970404268963286</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.9522945609550602</v>
+        <v>-0.34834388205715044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>-0.040979642846269676</v>
+        <v>-0.18880691216642873</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>0.3669104853259753</v>
+        <v>1.3428958320542654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>-0.008870768524238473</v>
+        <v>-0.0936603935862895</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>-1.301041779550255</v>
+        <v>-0.6453697643218501</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
-        <v>0.09220339568381841</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="B37" t="n" s="394">
-        <v>1.7800505602512258</v>
+        <v>-0.6453697643218501</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="393">
-        <v>0.3286436590610784</v>
+        <v>-0.049443526776523666</v>
       </c>
       <c r="B38" t="n" s="394">
-        <v>-0.4024526331989301</v>
+        <v>-0.6453697643218501</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="393">
-        <v>0.023150873216642717</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="B39" t="n" s="394">
-        <v>0.3669104853259753</v>
+        <v>0.6632376549259231</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" t="n" s="393">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="B40" t="n" s="394">
+        <v>-0.9104406707644325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="393">
+        <v>0.1971469982760908</v>
+      </c>
+      <c r="B41" t="n" s="394">
+        <v>1.2916965627795067</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="393">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="B42" t="n" s="394">
+        <v>0.9775703177801389</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="393">
+        <v>0.28656270536652023</v>
+      </c>
+      <c r="B43" t="n" s="394">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="393">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="B44" t="n" s="394">
+        <v>0.3328125066690014</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="398">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="412">
+    <row r="47">
+      <c r="A47" t="s" s="398">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="412">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="412">
+      <c r="B48" t="s" s="412">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="412">
+      <c r="C48" t="s" s="412">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="412">
+      <c r="D48" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="412">
+      <c r="E48" t="s" s="412">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="412">
+      <c r="F48" t="s" s="412">
         <v>20</v>
       </c>
-      <c r="G43" t="s" s="412">
+      <c r="G48" t="s" s="412">
         <v>3</v>
       </c>
-      <c r="H43" t="s" s="412">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="413">
-        <v>10179.0</v>
-      </c>
-      <c r="B44" t="n" s="414">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C44" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="416">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="418">
-        <v>32</v>
-      </c>
-      <c r="G44" t="n" s="419">
-        <v>0.01211046355488056</v>
-      </c>
-      <c r="H44" t="n" s="420">
-        <v>-0.041427361160951144</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="413">
-        <v>10187.0</v>
-      </c>
-      <c r="B45" t="n" s="414">
-        <v>9790781.0</v>
-      </c>
-      <c r="C45" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="418">
-        <v>32</v>
-      </c>
-      <c r="G45" t="n" s="419">
-        <v>-0.018017776512184103</v>
-      </c>
-      <c r="H45" t="n" s="420">
-        <v>0.3669104853259753</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="413">
-        <v>10192.0</v>
-      </c>
-      <c r="B46" t="n" s="414">
-        <v>1.0276682E7</v>
-      </c>
-      <c r="C46" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="416">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="418">
-        <v>33</v>
-      </c>
-      <c r="G46" t="n" s="419">
-        <v>-0.006143493388288963</v>
-      </c>
-      <c r="H46" t="n" s="420">
-        <v>1.7800505602512255</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="413">
-        <v>10202.0</v>
-      </c>
-      <c r="B47" t="n" s="414">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C47" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="416">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s" s="418">
-        <v>32</v>
-      </c>
-      <c r="G47" t="n" s="419">
-        <v>0.03290535220278847</v>
-      </c>
-      <c r="H47" t="n" s="420">
-        <v>-0.23067117645781812</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="413">
-        <v>10203.0</v>
-      </c>
-      <c r="B48" t="n" s="414">
-        <v>9921470.0</v>
-      </c>
-      <c r="C48" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="416">
-        <v>24</v>
-      </c>
-      <c r="E48" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s" s="418">
-        <v>32</v>
-      </c>
-      <c r="G48" t="n" s="419">
-        <v>-0.32525873529986427</v>
-      </c>
-      <c r="H48" t="n" s="420">
-        <v>1.7800505602512255</v>
+      <c r="H48" t="s" s="412">
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="413">
-        <v>10210.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B49" t="n" s="414">
-        <v>1.0277015E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C49" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="416">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F49" t="s" s="418">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>0.4970404268963286</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>-0.9522945609550602</v>
+        <v>-0.014001108050057498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10214.0</v>
+        <v>10185.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.0277022E7</v>
+        <v>1.027696E7</v>
       </c>
       <c r="C50" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s" s="417">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="418">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n" s="419">
-        <v>-0.040979642846269676</v>
+        <v>0.14820426248899476</v>
       </c>
       <c r="H50" t="n" s="420">
-        <v>0.3669104853259753</v>
+        <v>-0.3483438820571504</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="413">
-        <v>10219.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B51" t="n" s="414">
-        <v>1.0276831E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C51" t="s" s="415">
         <v>21</v>
@@ -5445,91 +4610,351 @@
         <v>30</v>
       </c>
       <c r="F51" t="s" s="418">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="n" s="419">
-        <v>-0.008870768524238473</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="H51" t="n" s="420">
-        <v>-1.301041779550255</v>
+        <v>0.3328125066690014</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="413">
-        <v>10230.0</v>
+        <v>10188.0</v>
       </c>
       <c r="B52" t="n" s="414">
-        <v>1.0351992E7</v>
+        <v>1.0276995E7</v>
       </c>
       <c r="C52" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D52" t="s" s="416">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s" s="417">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s" s="418">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="n" s="419">
-        <v>0.09220339568381841</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="H52" t="n" s="420">
-        <v>1.7800505602512258</v>
+        <v>0.3328125066690014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="413">
-        <v>10237.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B53" t="n" s="414">
-        <v>1.0377688E7</v>
+        <v>1.0276682E7</v>
       </c>
       <c r="C53" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D53" t="s" s="416">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F53" t="s" s="418">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="n" s="419">
-        <v>0.3286436590610784</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="H53" t="n" s="420">
-        <v>-0.4024526331989301</v>
+        <v>1.3428958320542652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="413">
-        <v>10238.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B54" t="n" s="414">
-        <v>1.0276953E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C54" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D54" t="s" s="416">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F54" t="s" s="418">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n" s="419">
-        <v>0.023150873216642717</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="H54" t="n" s="420">
-        <v>0.3669104853259753</v>
+        <v>-0.34834388205715044</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="413">
+        <v>10203.0</v>
+      </c>
+      <c r="B55" t="n" s="414">
+        <v>9921470.0</v>
+      </c>
+      <c r="C55" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="416">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G55" t="n" s="419">
+        <v>-0.18880691216642873</v>
+      </c>
+      <c r="H55" t="n" s="420">
+        <v>1.3428958320542654</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="413">
+        <v>10208.0</v>
+      </c>
+      <c r="B56" t="n" s="414">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C56" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G56" t="n" s="419">
+        <v>-0.0936603935862895</v>
+      </c>
+      <c r="H56" t="n" s="420">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="413">
+        <v>10210.0</v>
+      </c>
+      <c r="B57" t="n" s="414">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C57" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="416">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n" s="419">
+        <v>0.04999542669525498</v>
+      </c>
+      <c r="H57" t="n" s="420">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="413">
+        <v>10214.0</v>
+      </c>
+      <c r="B58" t="n" s="414">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C58" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="416">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G58" t="n" s="419">
+        <v>-0.049443526776523666</v>
+      </c>
+      <c r="H58" t="n" s="420">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="413">
+        <v>10217.0</v>
+      </c>
+      <c r="B59" t="n" s="414">
+        <v>9805341.0</v>
+      </c>
+      <c r="C59" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="416">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G59" t="n" s="419">
+        <v>-0.24471586653742866</v>
+      </c>
+      <c r="H59" t="n" s="420">
+        <v>0.6632376549259231</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="413">
+        <v>10219.0</v>
+      </c>
+      <c r="B60" t="n" s="414">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C60" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G60" t="n" s="419">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="H60" t="n" s="420">
+        <v>-0.9104406707644325</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="413">
+        <v>10226.0</v>
+      </c>
+      <c r="B61" t="n" s="414">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C61" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G61" t="n" s="419">
+        <v>0.1971469982760908</v>
+      </c>
+      <c r="H61" t="n" s="420">
+        <v>1.2916965627795067</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="413">
+        <v>10230.0</v>
+      </c>
+      <c r="B62" t="n" s="414">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C62" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="416">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G62" t="n" s="419">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="H62" t="n" s="420">
+        <v>0.9775703177801389</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="413">
+        <v>10237.0</v>
+      </c>
+      <c r="B63" t="n" s="414">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C63" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="416">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n" s="419">
+        <v>0.28656270536652023</v>
+      </c>
+      <c r="H63" t="n" s="420">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="413">
+        <v>10238.0</v>
+      </c>
+      <c r="B64" t="n" s="414">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C64" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s" s="416">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G64" t="n" s="419">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="H64" t="n" s="420">
+        <v>0.3328125066690014</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +4983,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -5582,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -5593,15 +5018,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>-0.31622776601683794</v>
+        <v>-0.3668572977780753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>-0.31622776601683794</v>
+        <v>-0.3668572977780753</v>
       </c>
       <c r="C7" t="n" s="452">
         <v>1.0</v>
@@ -5628,7 +5053,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -5639,15 +5064,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>-0.47140452079103173</v>
+        <v>-1.2470525998994142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>-0.47140452079103173</v>
+        <v>-1.2470525998994142</v>
       </c>
       <c r="C13" t="e" s="472">
         <v>#DIV/0!</v>
@@ -5674,7 +5099,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -5685,15 +5110,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.683772233983162</v>
+        <v>0.2407945993690087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.683772233983162</v>
+        <v>0.2407945993690087</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>-0.0</v>
@@ -5731,19 +5156,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.9795942058680525</v>
+        <v>-0.7771398859859593</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>-0.31622776601683794</v>
+        <v>-0.3668572977780753</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.9264187442026193</v>
+        <v>0.2622606823537116</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.683772233983162</v>
+        <v>0.2407945993690087</v>
       </c>
     </row>
     <row r="25">
@@ -5758,7 +5183,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -5766,734 +5191,456 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>0.14688963924618592</v>
+        <v>0.05583002094676219</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>-0.041427361160951144</v>
+        <v>-0.014001108050057498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>-0.382909871149995</v>
+        <v>-0.044148911115340694</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>-0.041427361160951144</v>
+        <v>0.3328125066690014</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>-0.08233388109376125</v>
+        <v>-0.10131874223823673</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>-0.4024526331989301</v>
+        <v>1.3428958320542652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>-0.3651781225582364</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>0.7578886550109737</v>
+        <v>-0.34834388205715044</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="n" s="533">
+        <v>-0.18880691216642873</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>1.3428958320542654</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>0.04999542669525498</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>-0.049443526776523666</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="533">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="B36" t="n" s="534">
+        <v>-0.9104406707644325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="533">
+        <v>0.1971469982760908</v>
+      </c>
+      <c r="B37" t="n" s="534">
+        <v>1.2916965627795067</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="533">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="B38" t="n" s="534">
+        <v>0.9775703177801389</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="533">
+        <v>0.28656270536652023</v>
+      </c>
+      <c r="B39" t="n" s="534">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="533">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="B40" t="n" s="534">
+        <v>0.3328125066690014</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="538">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="552">
+    <row r="43">
+      <c r="A43" t="s" s="538">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="552">
         <v>15</v>
       </c>
-      <c r="B36" t="s" s="552">
+      <c r="B44" t="s" s="552">
         <v>16</v>
       </c>
-      <c r="C36" t="s" s="552">
+      <c r="C44" t="s" s="552">
         <v>17</v>
       </c>
-      <c r="D36" t="s" s="552">
+      <c r="D44" t="s" s="552">
         <v>18</v>
       </c>
-      <c r="E36" t="s" s="552">
+      <c r="E44" t="s" s="552">
         <v>19</v>
       </c>
-      <c r="F36" t="s" s="552">
+      <c r="F44" t="s" s="552">
         <v>20</v>
       </c>
-      <c r="G36" t="s" s="552">
+      <c r="G44" t="s" s="552">
         <v>3</v>
       </c>
-      <c r="H36" t="s" s="552">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="553">
-        <v>10185.0</v>
-      </c>
-      <c r="B37" t="n" s="554">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C37" t="s" s="555">
+      <c r="H44" t="s" s="552">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="553">
+        <v>10179.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C45" t="s" s="555">
         <v>21</v>
       </c>
-      <c r="D37" t="s" s="556">
+      <c r="D45" t="s" s="556">
         <v>22</v>
       </c>
-      <c r="E37" t="s" s="557">
+      <c r="E45" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="558">
         <v>31</v>
       </c>
-      <c r="F37" t="s" s="558">
+      <c r="G45" t="n" s="559">
+        <v>0.05583002094676219</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>-0.014001108050057498</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="553">
+        <v>10187.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>9790781.0</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>-0.044148911115340694</v>
+      </c>
+      <c r="H46" t="n" s="560">
+        <v>0.3328125066690014</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="553">
+        <v>10192.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="558">
         <v>32</v>
       </c>
-      <c r="G37" t="n" s="559">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="H37" t="n" s="560">
-        <v>-0.041427361160951144</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="553">
-        <v>10188.0</v>
-      </c>
-      <c r="B38" t="n" s="554">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C38" t="s" s="555">
+      <c r="G47" t="n" s="559">
+        <v>-0.10131874223823673</v>
+      </c>
+      <c r="H47" t="n" s="560">
+        <v>1.3428958320542652</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="553">
+        <v>10202.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C48" t="s" s="555">
         <v>21</v>
       </c>
-      <c r="D38" t="s" s="556">
+      <c r="D48" t="s" s="556">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>0.038106090290863724</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>-0.34834388205715044</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="553">
+        <v>10203.0</v>
+      </c>
+      <c r="B49" t="n" s="554">
+        <v>9921470.0</v>
+      </c>
+      <c r="C49" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="556">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G49" t="n" s="559">
+        <v>-0.18880691216642873</v>
+      </c>
+      <c r="H49" t="n" s="560">
+        <v>1.3428958320542654</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="553">
+        <v>10210.0</v>
+      </c>
+      <c r="B50" t="n" s="554">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C50" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="556">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="559">
+        <v>0.04999542669525498</v>
+      </c>
+      <c r="H50" t="n" s="560">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="553">
+        <v>10214.0</v>
+      </c>
+      <c r="B51" t="n" s="554">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C51" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="556">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n" s="559">
+        <v>-0.049443526776523666</v>
+      </c>
+      <c r="H51" t="n" s="560">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="553">
+        <v>10219.0</v>
+      </c>
+      <c r="B52" t="n" s="554">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C52" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n" s="559">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="H52" t="n" s="560">
+        <v>-0.9104406707644325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="553">
+        <v>10226.0</v>
+      </c>
+      <c r="B53" t="n" s="554">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C53" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="556">
         <v>24</v>
       </c>
-      <c r="E38" t="s" s="557">
+      <c r="E53" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s" s="558">
+        <v>32</v>
+      </c>
+      <c r="G53" t="n" s="559">
+        <v>0.1971469982760908</v>
+      </c>
+      <c r="H53" t="n" s="560">
+        <v>1.2916965627795067</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="553">
+        <v>10230.0</v>
+      </c>
+      <c r="B54" t="n" s="554">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C54" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="556">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s" s="558">
         <v>31</v>
       </c>
-      <c r="F38" t="s" s="558">
+      <c r="G54" t="n" s="559">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="H54" t="n" s="560">
+        <v>0.9775703177801389</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="553">
+        <v>10237.0</v>
+      </c>
+      <c r="B55" t="n" s="554">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C55" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="556">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="558">
         <v>32</v>
       </c>
-      <c r="G38" t="n" s="559">
-        <v>-0.382909871149995</v>
-      </c>
-      <c r="H38" t="n" s="560">
-        <v>-0.041427361160951144</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="553">
-        <v>10208.0</v>
-      </c>
-      <c r="B39" t="n" s="554">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C39" t="s" s="555">
+      <c r="G55" t="n" s="559">
+        <v>0.28656270536652023</v>
+      </c>
+      <c r="H55" t="n" s="560">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="553">
+        <v>10238.0</v>
+      </c>
+      <c r="B56" t="n" s="554">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C56" t="s" s="555">
         <v>21</v>
       </c>
-      <c r="D39" t="s" s="556">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s" s="557">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s" s="558">
-        <v>33</v>
-      </c>
-      <c r="G39" t="n" s="559">
-        <v>-0.08233388109376125</v>
-      </c>
-      <c r="H39" t="n" s="560">
-        <v>-0.4024526331989301</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="553">
-        <v>10217.0</v>
-      </c>
-      <c r="B40" t="n" s="554">
-        <v>9805341.0</v>
-      </c>
-      <c r="C40" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s" s="556">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s" s="557">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s" s="558">
-        <v>33</v>
-      </c>
-      <c r="G40" t="n" s="559">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="H40" t="n" s="560">
-        <v>0.7578886550109737</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="562">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="576">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s" s="590">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="590">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="586">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n" s="591">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n" s="592">
-        <v>0.4664771853332246</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="586">
-        <v>46</v>
-      </c>
-      <c r="B7" t="n" s="591">
-        <v>0.4664771853332246</v>
-      </c>
-      <c r="C7" t="n" s="592">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="596">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s" s="610">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s" s="610">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="606">
-        <v>3</v>
-      </c>
-      <c r="B12" t="e" s="611">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" t="n" s="612">
-        <v>1.2917898859331094</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="606">
-        <v>46</v>
-      </c>
-      <c r="B13" t="n" s="611">
-        <v>1.2917898859331094</v>
-      </c>
-      <c r="C13" t="n" s="612">
-        <v>1.6438247401783124E8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="616">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17" t="s" s="630">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s" s="630">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="626">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n" s="631">
-        <v>-0.0</v>
-      </c>
-      <c r="C18" t="n" s="632">
-        <v>0.2439547173093749</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="626">
-        <v>46</v>
-      </c>
-      <c r="B19" t="n" s="631">
-        <v>0.2439547173093749</v>
-      </c>
-      <c r="C19" t="n" s="632">
-        <v>3.4211388289180694E-48</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="636">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s" s="650">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s" s="650">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s" s="650">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s" s="650">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="646">
-        <v>47</v>
-      </c>
-      <c r="B24" t="n" s="651">
-        <v>-0.35483488085953135</v>
-      </c>
-      <c r="C24" t="n" s="652">
-        <v>0.4664771853332246</v>
-      </c>
-      <c r="D24" t="n" s="653">
-        <v>0.8814163552584937</v>
-      </c>
-      <c r="E24" t="n" s="654">
-        <v>0.2439547173093749</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="658">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="672">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s" s="672">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="673">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="B29" t="n" s="674">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="673">
-        <v>-0.046345989731290275</v>
-      </c>
-      <c r="B30" t="n" s="674">
-        <v>0.5791018950730729</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="673">
-        <v>-0.02157182249588669</v>
-      </c>
-      <c r="B31" t="n" s="674">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="673">
-        <v>-0.019331783211670558</v>
-      </c>
-      <c r="B32" t="n" s="674">
-        <v>0.13182888796024017</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="673">
-        <v>-0.01485912005564434</v>
-      </c>
-      <c r="B33" t="n" s="674">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="673">
-        <v>-0.026619631485678533</v>
-      </c>
-      <c r="B34" t="n" s="674">
-        <v>-0.11419269077722653</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="673">
-        <v>-0.09379854006121276</v>
-      </c>
-      <c r="B35" t="n" s="674">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="673">
-        <v>0.07859940130841217</v>
-      </c>
-      <c r="B36" t="n" s="674">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="678">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="692">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s" s="692">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s" s="692">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s" s="692">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s" s="692">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s" s="692">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s" s="692">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s" s="692">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="693">
-        <v>10175.0</v>
-      </c>
-      <c r="B41" t="n" s="694">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C41" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s" s="696">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G41" t="n" s="699">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="H41" t="n" s="700">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="693">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="694">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s" s="696">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G42" t="n" s="699">
-        <v>-0.046345989731290275</v>
-      </c>
-      <c r="H42" t="n" s="700">
-        <v>0.5791018950730729</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="693">
-        <v>10197.0</v>
-      </c>
-      <c r="B43" t="n" s="694">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C43" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s" s="696">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G43" t="n" s="699">
-        <v>-0.02157182249588669</v>
-      </c>
-      <c r="H43" t="n" s="700">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="693">
-        <v>10201.0</v>
-      </c>
-      <c r="B44" t="n" s="694">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C44" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s" s="696">
-        <v>54</v>
-      </c>
-      <c r="E44" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G44" t="n" s="699">
-        <v>-0.019331783211670558</v>
-      </c>
-      <c r="H44" t="n" s="700">
-        <v>0.13182888796024017</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="693">
-        <v>10204.0</v>
-      </c>
-      <c r="B45" t="n" s="694">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C45" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s" s="696">
-        <v>55</v>
-      </c>
-      <c r="E45" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G45" t="n" s="699">
-        <v>-0.01485912005564434</v>
-      </c>
-      <c r="H45" t="n" s="700">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="693">
-        <v>10206.0</v>
-      </c>
-      <c r="B46" t="n" s="694">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C46" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s" s="696">
-        <v>56</v>
-      </c>
-      <c r="E46" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G46" t="n" s="699">
-        <v>-0.026619631485678533</v>
-      </c>
-      <c r="H46" t="n" s="700">
-        <v>-0.11419269077722653</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="693">
-        <v>10213.0</v>
-      </c>
-      <c r="B47" t="n" s="694">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C47" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s" s="696">
-        <v>57</v>
-      </c>
-      <c r="E47" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G47" t="n" s="699">
-        <v>-0.09379854006121276</v>
-      </c>
-      <c r="H47" t="n" s="700">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="693">
-        <v>10231.0</v>
-      </c>
-      <c r="B48" t="n" s="694">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C48" t="s" s="695">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s" s="696">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s" s="697">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s" s="698">
-        <v>59</v>
-      </c>
-      <c r="G48" t="n" s="699">
-        <v>0.07859940130841217</v>
-      </c>
-      <c r="H48" t="n" s="700">
-        <v>0.00634607122688361</v>
+      <c r="D56" t="s" s="556">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s" s="557">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s" s="558">
+        <v>32</v>
+      </c>
+      <c r="G56" t="n" s="559">
+        <v>0.05893550978126971</v>
+      </c>
+      <c r="H56" t="n" s="560">
+        <v>0.3328125066690014</v>
       </c>
     </row>
   </sheetData>
